--- a/EWApp/EWAppWorkbook.xlsx
+++ b/EWApp/EWAppWorkbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="7395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
